--- a/certificatedemo.xlsx
+++ b/certificatedemo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="38">
   <si>
     <t>Name of Student</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>ALEENA GEORGE</t>
-  </si>
-  <si>
-    <t>3-A</t>
   </si>
   <si>
     <t>YantroMitra Talent Test</t>
@@ -493,7 +490,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,35 +548,35 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -587,37 +584,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -625,37 +622,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -663,37 +660,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -701,37 +698,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -739,37 +736,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -777,37 +774,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -815,37 +812,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -853,37 +850,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -891,37 +888,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -929,37 +926,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -967,37 +964,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1005,37 +1002,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1043,37 +1040,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1081,37 +1078,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1119,37 +1116,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1157,37 +1154,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1195,37 +1192,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/certificatedemo.xlsx
+++ b/certificatedemo.xlsx
@@ -495,7 +495,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
